--- a/data/takipTahmin_holding.xlsx
+++ b/data/takipTahmin_holding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguraskar\Documents\Github\pjournal_mef04-uguraskar\mef04-uguraskar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC57D689-92EC-4191-A333-81A9AE21DDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C87ECC3-2784-41CB-B88B-E9D43FF418F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="1530" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isyatirim" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,12 @@
     <t>AGHOL</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>26.11.2020</t>
   </si>
   <si>
     <t>ALARK</t>
   </si>
   <si>
-    <t>TUT</t>
-  </si>
-  <si>
     <t>KCHOL</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>3 Months(mn TL)</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>HOLD</t>
   </si>
 </sst>
 </file>
@@ -426,41 +426,41 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>29</v>
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>-73.25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>7.3</v>
@@ -509,13 +509,13 @@
         <v>-20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>499.16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>27</v>
@@ -541,13 +541,13 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>10967.97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>13.5</v>
@@ -573,13 +573,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>4894.99</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
